--- a/finetuning/it_datasets/qa_dataset/qa_it_zouila_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_zouila_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,12 +664,46 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in zouila and looking for a great hostel, ZOUILA is a must-visit spot. Located in FXPP+QGC ZOUILA, MC 96, Mahdia, this top-rated destination offers a range of amenities for hostel lovers. With a rating of 4.7, it's a place you won't want to miss. To get there, use these GPS coordinates: 35.50056, 11.06056. For more details, visit their website at https://www.google.com/maps/place/ZOUILA/data=!4m7!3m6!1s0x130221a57d5cd959:0x26bca42add631517!8m2!3d35.4869363!4d10.986259!16s%2Fg%2F11pfnc3jgq!19sChIJWdlcfaUhAhMRFxVj3SqkvCY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>ZOUILA is a 4.7-rated hostel located in zouila, MC 96, Mahdia. It offers a comfortable and affordable stay for travelers. The hostel is well-equipped with modern amenities and provides a range of services to ensure a pleasant experience for its guests. Conveniently located in the heart of zouila, ZOUILA offers easy access to local attractions and transportation hubs. Whether you're a solo traveler, a couple, or a group of friends, ZOUILA is the perfect place to stay for an enjoyable and memorable vacation.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where is the top-rated hostel, ZOUILA, located, offering a range of amenities and a 4.7 rating?</t>
+          <t>Day Plan:
+Morning: Explore zouila, the historic heart of the city, and discover its narrow streets, traditional architecture, and bustling atmosphere.
+Mid-Morning: Visit the Mahdia Fortress, a UNESCO World Heritage Site, and learn about its rich past and impressive fortifications.
+Midday: Enjoy a delightful lunch at a local restaurant, savoring the flavors of traditional Tunisian cuisine.
+Afternoon: Relax and rejuvenate at the nearby beach, taking a refreshing swim or simply soaking up the sun's warmth.
+Evening: Participate in a guided tour of the ZOUILA hostel, gaining insights into its sustainable practices and commitment to providing a comfortable and eco-friendly stay.
+Night: Experience the vibrant nightlife of zouila, exploring its lively bars and restaurants while immersing yourself in the local music scene.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+ZOUILA is a 4.7-rated hostel located in zouila, MC 96, Mahdia. It offers a comfortable and affordable stay for travelers. The hostel is well-equipped with modern amenities and provides a range of services to ensure a pleasant experience for its guests. Conveniently located in the heart of zouila, ZOUILA offers easy access to local attractions and transportation hubs. Whether you're a solo traveler, a couple, or a group of friends, ZOUILA is the perfect place to stay for an enjoyable and memorable vacation.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
